--- a/Cahier_de_test.xlsx
+++ b/Cahier_de_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -98,9 +98,6 @@
     <t>nouvel employé</t>
   </si>
   <si>
-    <t>demande les informations de l'employé : login, mot de passe , nom , prénom (controle de saisie, si on rentre une info non valide(mauvais login, nom ou prénom avec des chiffres) on redemande de rentrer l'info). Une fois les informations entrées retour page authentification</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>liberation via le numero : une chambre occupée en ce moment et reservé plus tard</t>
   </si>
   <si>
-    <t>liberation de la chambre, remboursement des jours non utilisé, alimentation fichier transaction, suppression de la reservation. Verification : afficher l'etat de l'hotel, la chambre ne doit pu être occuppé et voir si le fichier transaction a bien été alimenté</t>
-  </si>
-  <si>
     <t>8.3</t>
   </si>
   <si>
@@ -284,18 +278,12 @@
     <t>liberation d'une chambre via le nom client, le client possède plusieurs réservation en cours. Retour menu authentification, se loguer avec le login client</t>
   </si>
   <si>
-    <t>reservation de plusieurs chambres. Liberation chambre : demande le nom client, demande le choix de la chambre à libérer. Retour menu authentfication, se loguer avec login du client, affichage des réservation du client (la chambre libéré ne doit pas apparaitre.Verifier que le fichier transaction à été alimenté</t>
-  </si>
-  <si>
     <t>8.8</t>
   </si>
   <si>
     <t>libération d'une chambre via le nom client, plusieurs clients on le même nom. Retour menu authentification se loguer avec les identifiants clients</t>
   </si>
   <si>
-    <t>reserver des chambres avec plusieurs clients avec le même nom. Liberation via le nom, demande de préciser la personne qui veut libérer la chambre</t>
-  </si>
-  <si>
     <t>H -modifier une reservation</t>
   </si>
   <si>
@@ -357,13 +345,70 @@
   </si>
   <si>
     <t>version : 1.0</t>
+  </si>
+  <si>
+    <t>aucune chambre est occupée</t>
+  </si>
+  <si>
+    <t>3 chambres sont en ce moment occupées et 2 chambres sont reservées pour plus tard</t>
+  </si>
+  <si>
+    <t>affiche le chiffres d'affaires et aucune chambre est affiché</t>
+  </si>
+  <si>
+    <t>affiche le chiffres d'affaires et les 3 chambres occupé en ce moment</t>
+  </si>
+  <si>
+    <t>aucune chambre est occupée en ce moment</t>
+  </si>
+  <si>
+    <t>affiche 0 chambres occupées</t>
+  </si>
+  <si>
+    <t>affiche 3 chambres occupées</t>
+  </si>
+  <si>
+    <t>affiche 62 chambres libres (si l'hotel à 65 chambres)</t>
+  </si>
+  <si>
+    <t>affiche 65 chambres libres (si l'hotel à 65 chambres)</t>
+  </si>
+  <si>
+    <t>3 chambres sont en ce moment occupées (la 1, la 2 et la 38) et 2 chambres sont reservées pour plus tard</t>
+  </si>
+  <si>
+    <t>affiche le numero de la 1er chambre libre est 1</t>
+  </si>
+  <si>
+    <t>affiche le numero de la 1er chambre libre est 3</t>
+  </si>
+  <si>
+    <t>3 chambres sont en ce moment occupées (la 65, la 64, la 63, la 62 et la 38) et 2 chambres sont reservées pour plus tard</t>
+  </si>
+  <si>
+    <t>affiche le numero de la derniere chambre libre est 61</t>
+  </si>
+  <si>
+    <t>affiche le numero de la derniere chambre libre est 65</t>
+  </si>
+  <si>
+    <t>demande les informations de l'employé : login, mot de passe , nom , prénom (controle de saisie, si on rentre une info non valide(mauvais login, nom ou prénom avec des caractères autre que alphabétiques) on redemande de rentrer l'info). Une fois les informations entrées retour page authentification</t>
+  </si>
+  <si>
+    <t>liberation de la chambre, remboursement des jours non utilisé, alimentation fichier transaction, suppression de la reservation. Verification : afficher l'etat de l'hotel, la chambre ne doit pu être occupée et voir si le fichier transaction a bien été alimenté</t>
+  </si>
+  <si>
+    <t>reservation de plusieurs chambres. Liberation chambre : demande le nom client, demande le choix de la chambre à libérer. Retour menu authentfication, se loguer avec login du client, affichage des réservation du client (la chambre libéré ne doit pas apparaitre.Verifier que le fichier transactions à été alimenté</t>
+  </si>
+  <si>
+    <t>reserver des chambres avec plusieurs clients avec le même nom. Liberation via le nom, demande de préciser la personne qui veut libérer la chambre, libérer la chambre du client en question.  Retour Menu authentification(Q) et  se loguer avec identifiant client, vérifier que la réservation n'apparrait plus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,37 +417,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -605,201 +646,164 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,7 +821,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -841,7 +845,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FFFFFFFF"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -865,7 +869,15 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -880,7 +892,15 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -907,7 +927,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -945,7 +965,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -983,7 +1003,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="none"/>
@@ -1331,732 +1351,790 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="12" style="58" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="66" t="s">
+      <c r="D18" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="66"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="C20" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
+      <c r="C21" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="C23" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="C24" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="37"/>
+    </row>
+    <row r="25" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="37" t="s">
+      <c r="C29" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="C30" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="37"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="2:6" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="B32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="2:6" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="D32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="E32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="2:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="2:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="D33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="2:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B34" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="2:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="41" t="s">
+      <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="D34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="E34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="2:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="2:6" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+      <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="D35" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="E35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="37"/>
+    </row>
+    <row r="36" spans="2:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="B36" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="2:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="C36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="D36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="48"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="C37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="D37" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="52"/>
-    </row>
-    <row r="38" spans="2:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="s">
+      <c r="C38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="D38" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="E38" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="56"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+      <c r="C40" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="D40" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="E40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="C41" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="D41" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="C42" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
+      <c r="D42" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="E42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="C43" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B43" s="31" t="s">
+      <c r="D43" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="37"/>
+    </row>
+    <row r="44" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C44" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="D44" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="E44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="2:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="B45" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="C45" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
+      <c r="D45" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="E45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="37"/>
+    </row>
+    <row r="46" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="C46" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B46" s="37" t="s">
+      <c r="D46" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C47" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D47" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="51"/>
+    </row>
+    <row r="48" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="61" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="37"/>
+    </row>
+    <row r="51" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="37"/>
+    </row>
+    <row r="55" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="64"/>
-    </row>
-    <row r="48" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-    </row>
-    <row r="49" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-    </row>
-    <row r="53" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="37" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="37"/>
+    </row>
+    <row r="60" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="37" t="s">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="59" t="s">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="37"/>
+    </row>
+    <row r="62" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="64"/>
-    </row>
-    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-    </row>
-    <row r="58" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="37" t="s">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34"/>
-    </row>
-    <row r="60" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="37" t="s">
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="37"/>
+    </row>
+    <row r="64" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="2:6" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="64"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cahier_de_test.xlsx
+++ b/Cahier_de_test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -197,9 +197,6 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>Controle de la saisie pour un nouveau client, pour les dates et pour la validation de la réservation. Entrer des données fausses</t>
-  </si>
-  <si>
     <t>Reservation nouveau client, entrer de données érronées pour le login, nom, prenom, mail. L'application doit bouclé pour chaque données fausses jusqu'a ce que l'utilisateur entre la donnée dans le bon format. Entre des dates fausses, le programme doit bouclé jusqu'a ce que le l'utilisateur entre une date valide. Lors du choix entrer des choix non valides, le programmme doit boucler jusqu'a ce que le choix soit valide. Lors de la validation de la réservation entrer des choses différentes de oui ou non. le programme boucle jusqu'a ce que l'on rentre oui ou non</t>
   </si>
   <si>
@@ -308,12 +305,6 @@
     <t>9.6</t>
   </si>
   <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
     <t>10.1</t>
   </si>
   <si>
@@ -326,15 +317,6 @@
     <t>10.5</t>
   </si>
   <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
     <t>10.2</t>
   </si>
   <si>
@@ -402,6 +384,69 @@
   </si>
   <si>
     <t>reserver des chambres avec plusieurs clients avec le même nom. Liberation via le nom, demande de préciser la personne qui veut libérer la chambre, libérer la chambre du client en question.  Retour Menu authentification(Q) et  se loguer avec identifiant client, vérifier que la réservation n'apparrait plus</t>
+  </si>
+  <si>
+    <t>modification d'une reservation d'un client qui à plusieurs chambres identiques reservées</t>
+  </si>
+  <si>
+    <t>modification d'une des reservations prise en compte sans affecter les autres reservations</t>
+  </si>
+  <si>
+    <t>annulation d'une reservation parmis plusieurs reservations du client prise en compte. Retour menu et afficher état hotel (A), verification de l'annulation de la reservation</t>
+  </si>
+  <si>
+    <t>annulation d'une reservation pour le client, qui  à plusieurs chambres identiques</t>
+  </si>
+  <si>
+    <t>modification d'une reservation d'un client qui n'a pas de reservation</t>
+  </si>
+  <si>
+    <t>erreur à l'entrée des données pour la modification d'une reservation(numéro reservation)</t>
+  </si>
+  <si>
+    <t>modification d'une reservation avec date de début de cette dernière inferieur à la date de début de la reservation</t>
+  </si>
+  <si>
+    <t>message erreur au moment de choisir la reservation à modifier(numéro de reservation), veuillez entrer un nombre valide correspondant au choix ci-dessus</t>
+  </si>
+  <si>
+    <t>message d'erreur à l'employé lui indiquant d'entrer une date valide après la date intial de la reservation à modifier</t>
+  </si>
+  <si>
+    <t>message d'erreur car tout client doit avoir au moins une reservation</t>
+  </si>
+  <si>
+    <t>modification d'une reservation avec une date de début de séjour valide(superieur à la date intial) mais inferieur à la nouvelle date intial</t>
+  </si>
+  <si>
+    <t>message d'erreur à l'employé l'invitant à entrer une date de fin valide pour la reservation</t>
+  </si>
+  <si>
+    <t>annulation d'une reservation avec une date posterieur à la date de l'annulation</t>
+  </si>
+  <si>
+    <t>après choix de la reservation à annuler, le programme demande le numéro de la carte pour effectuer le remboursement</t>
+  </si>
+  <si>
+    <t>modification d'une reservation d'un client avec les données correctes au niveau de la date de début et la date de fin de la reservation</t>
+  </si>
+  <si>
+    <t>annulation d'une reservation d'un client avec les données correctes au niveau de la date de début et la date de fin de la reservation</t>
+  </si>
+  <si>
+    <t>Après authentification de l'employé pour la modification, il est demandé au client de choisir la reservation qu'il souhaite modifier avec un numéro qui correspond à chaque réservation. Une fois le choix fait, le logiciel demande une nouvelle date de debut du sejour et à continuation une date de fin de séjour. Une fois validé, il affiche le montant de la reservation et demande le numero de carte pour effectuer le paiement.</t>
+  </si>
+  <si>
+    <t>Après authentification de l'employé pour l'annulation, il est demandé au client de choisir la reservation qu'il souhaite annuler avec un numéro qui correspond à chaque réservation. Une fois le choix fait, le logiciel annule la reservation affichant le montant à rembourser et lui demande le numéro de sa carte pour effectuer le remboursement.</t>
+  </si>
+  <si>
+    <t>Controle de la saisie pour un nouveau client, pour les dates et pour la validation de la réservation. Entrer des données fausses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annulation d'une reservation mais sans avoir le numero de la carte pour le remboursement </t>
+  </si>
+  <si>
+    <t>après choix de la reservation à annuler, le programme demande le numéro de la carte pour effectuer le remboursement si cette dernière est erronée (alphabetique) le remboursement est fait</t>
   </si>
 </sst>
 </file>
@@ -646,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -797,12 +842,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -810,64 +849,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FFD9E1F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF4472C4"/>
-          <bgColor rgb="FF4472C4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1037,26 +1018,84 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E1F2"/>
+          <bgColor rgb="FFD9E1F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4472C4"/>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1073,14 +1112,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:F65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
-  <autoFilter ref="B5:F65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:F60" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B5:F60"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="6"/>
-    <tableColumn id="2" name="scénario" dataDxfId="5"/>
-    <tableColumn id="3" name="Comportement attendu" dataDxfId="4"/>
-    <tableColumn id="4" name="ok ou ko ?" dataDxfId="3"/>
-    <tableColumn id="5" name="remarque" dataDxfId="2"/>
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="2" name="scénario" dataDxfId="3"/>
+    <tableColumn id="3" name="Comportement attendu" dataDxfId="2"/>
+    <tableColumn id="4" name="ok ou ko ?" dataDxfId="1"/>
+    <tableColumn id="5" name="remarque" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1349,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F65"/>
+  <dimension ref="B2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1367,19 +1406,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -1492,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>9</v>
@@ -1552,10 +1591,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="34"/>
@@ -1565,10 +1604,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>9</v>
@@ -1589,10 +1628,10 @@
         <v>34</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -1604,10 +1643,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>9</v>
@@ -1628,10 +1667,10 @@
         <v>37</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -1643,10 +1682,10 @@
         <v>38</v>
       </c>
       <c r="C24" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>114</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>9</v>
@@ -1667,10 +1706,10 @@
         <v>37</v>
       </c>
       <c r="C26" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>117</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
@@ -1682,10 +1721,10 @@
         <v>38</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>9</v>
@@ -1706,10 +1745,10 @@
         <v>41</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -1721,10 +1760,10 @@
         <v>42</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>9</v>
@@ -1805,10 +1844,10 @@
         <v>56</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -1817,13 +1856,13 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>9</v>
@@ -1832,13 +1871,13 @@
     </row>
     <row r="38" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B38" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="E38" s="46" t="s">
         <v>9</v>
@@ -1847,7 +1886,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -1856,13 +1895,13 @@
     </row>
     <row r="40" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="D40" s="33" t="s">
         <v>67</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>9</v>
@@ -1871,13 +1910,13 @@
     </row>
     <row r="41" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B41" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>70</v>
-      </c>
       <c r="D41" s="36" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>9</v>
@@ -1886,13 +1925,13 @@
     </row>
     <row r="42" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="D42" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
@@ -1901,13 +1940,13 @@
     </row>
     <row r="43" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B43" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>9</v>
@@ -1916,13 +1955,13 @@
     </row>
     <row r="44" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="D44" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>9</v>
@@ -1931,13 +1970,13 @@
     </row>
     <row r="45" spans="2:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B45" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="D45" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>9</v>
@@ -1946,13 +1985,13 @@
     </row>
     <row r="46" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B46" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="33" t="s">
-        <v>83</v>
-      </c>
       <c r="D46" s="33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>9</v>
@@ -1961,13 +2000,13 @@
     </row>
     <row r="47" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B47" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>85</v>
-      </c>
       <c r="D47" s="49" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>9</v>
@@ -1976,165 +2015,182 @@
     </row>
     <row r="48" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30"/>
       <c r="F48" s="31"/>
     </row>
-    <row r="49" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="37"/>
+    </row>
+    <row r="51" spans="2:6" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="37"/>
-    </row>
-    <row r="51" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="C51" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B52" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="37"/>
+    </row>
+    <row r="53" spans="2:6" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="37"/>
-    </row>
-    <row r="53" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>131</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="37"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="2:6" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="37"/>
-    </row>
-    <row r="55" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="C56" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="37"/>
+    </row>
+    <row r="58" spans="2:6" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="52" t="s">
+      <c r="C58" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="2:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-    </row>
-    <row r="58" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="37"/>
     </row>
-    <row r="60" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B60" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="37"/>
-    </row>
-    <row r="62" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="37"/>
-    </row>
-    <row r="64" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
